--- a/app/report/Book.xlsx
+++ b/app/report/Book.xlsx
@@ -96,21 +96,41 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEC9BA4"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
@@ -216,60 +236,88 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -282,6 +330,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFEC9BA4"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,253 +572,256 @@
   </sheetPr>
   <dimension ref="C1:H30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="36.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/report/Book.xlsx
+++ b/app/report/Book.xlsx
@@ -132,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -148,36 +148,8 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -236,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,7 +225,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,59 +237,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,8 +536,8 @@
   </sheetPr>
   <dimension ref="C1:H30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -613,217 +577,265 @@
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="13"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18"/>
+      <c r="C9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="13"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="13"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="17"/>
+      <c r="C11" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="13"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="13"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="17"/>
+      <c r="C13" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="13"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="17"/>
+      <c r="C14" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="13"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="17"/>
+      <c r="C15" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="13"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="17"/>
+      <c r="C16" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="13"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="17"/>
+      <c r="C17" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="13"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="17"/>
+      <c r="C18" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="13"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="17"/>
+      <c r="C19" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="13"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="17"/>
+      <c r="C20" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="13"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="17"/>
+      <c r="C21" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="13"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="17"/>
+      <c r="C22" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="13"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="17"/>
+      <c r="C23" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="13"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="17"/>
+      <c r="C24" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="13"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="17"/>
+      <c r="C25" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="13"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="17"/>
+      <c r="C26" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="13"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="17"/>
+      <c r="C27" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="13"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="17"/>
+      <c r="C28" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="13"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="17"/>
+      <c r="C29" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="13"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="17"/>
+      <c r="C30" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
